--- a/data/trans_orig/P2A_fisi_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CA0DE2-F611-4E88-9A55-2CD97C6130D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6835428B-DF67-47E6-8D52-9B3001E7F86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99FBC1E4-844E-4271-A5DB-44F5EA9BB088}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{166B639C-55AB-413F-894D-F7A61FC400F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>91,77%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>5,01%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>94,99%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,73 +191,73 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -272,31 +266,31 @@
     <t>5,05%</t>
   </si>
   <si>
-    <t>6,14%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>93,86%</t>
+    <t>93,84%</t>
   </si>
   <si>
     <t>94,95%</t>
@@ -305,85 +299,85 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>86,95%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>7,03%</t>
@@ -392,19 +386,19 @@
     <t>94,7%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>93,82%</t>
@@ -413,112 +407,106 @@
     <t>92,97%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>89,91%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>8,41%</t>
@@ -527,397 +515,427 @@
     <t>6,61%</t>
   </si>
   <si>
-    <t>10,7%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
     <t>88,84%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F30E75-D6DC-4DD7-B526-16515ABDE804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A797B7F2-6B89-4C24-872D-7C1C658A26DD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,10 +1644,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -1638,13 +1656,13 @@
         <v>125465</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,16 +1674,16 @@
         <v>1587</v>
       </c>
       <c r="D8" s="7">
-        <v>1630040</v>
+        <v>1630039</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1496</v>
@@ -1674,13 +1692,13 @@
         <v>1525581</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>3083</v>
@@ -1689,13 +1707,13 @@
         <v>3155621</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1751,7 +1769,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1781,13 @@
         <v>15324</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -1778,13 +1796,13 @@
         <v>21179</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -1793,13 +1811,13 @@
         <v>36503</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1832,13 @@
         <v>536084</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>433</v>
@@ -1829,13 +1847,13 @@
         <v>455233</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>947</v>
@@ -1844,13 +1862,13 @@
         <v>991317</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1936,13 @@
         <v>163611</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -1933,13 +1951,13 @@
         <v>209674</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>360</v>
@@ -1948,13 +1966,13 @@
         <v>373284</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,16 +1984,16 @@
         <v>3052</v>
       </c>
       <c r="D14" s="7">
-        <v>3112932</v>
+        <v>3112933</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3099</v>
@@ -1984,28 +2002,28 @@
         <v>3169524</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6151</v>
       </c>
       <c r="N14" s="7">
-        <v>6282457</v>
+        <v>6282456</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2035,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2047,7 +2065,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2061,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12141482-4A12-41FF-B6DF-B5A7A2746023}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE81B29-4DCE-45AB-9B37-DF24E81BA89C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2097,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2204,13 +2222,13 @@
         <v>126814</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
@@ -2219,13 +2237,13 @@
         <v>174948</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>275</v>
@@ -2234,13 +2252,13 @@
         <v>301762</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2273,13 @@
         <v>847829</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1084</v>
@@ -2270,13 +2288,13 @@
         <v>1162848</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1880</v>
@@ -2285,13 +2303,13 @@
         <v>2010678</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2377,13 @@
         <v>104173</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>113</v>
@@ -2374,13 +2392,13 @@
         <v>125647</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>211</v>
@@ -2389,13 +2407,13 @@
         <v>229820</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2428,13 @@
         <v>1859784</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1522</v>
@@ -2425,13 +2443,13 @@
         <v>1632156</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3280</v>
@@ -2440,13 +2458,13 @@
         <v>3491940</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2520,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2517,10 +2535,10 @@
         <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2529,13 +2547,13 @@
         <v>22758</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2544,13 +2562,13 @@
         <v>41549</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2583,13 @@
         <v>462390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>392</v>
@@ -2580,13 +2598,13 @@
         <v>435873</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>814</v>
@@ -2595,13 +2613,13 @@
         <v>898263</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2687,13 @@
         <v>249777</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>296</v>
@@ -2684,13 +2702,13 @@
         <v>323353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>522</v>
@@ -2699,13 +2717,13 @@
         <v>573131</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2738,13 @@
         <v>3170005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>2998</v>
@@ -2735,13 +2753,13 @@
         <v>3230877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>5974</v>
@@ -2750,13 +2768,13 @@
         <v>6400881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9B0AE3-F7A2-453F-9BAB-BA88B2CCC4F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5D3F07-9DD6-43AF-A68D-7A105FA1AF4F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2973,13 @@
         <v>63457</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>110</v>
@@ -2970,13 +2988,13 @@
         <v>128524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>174</v>
@@ -2985,13 +3003,13 @@
         <v>191981</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3024,13 @@
         <v>690890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>782</v>
@@ -3021,13 +3039,13 @@
         <v>866136</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1480</v>
@@ -3036,13 +3054,13 @@
         <v>1557026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3128,13 @@
         <v>104308</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -3125,13 +3143,13 @@
         <v>93349</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>182</v>
@@ -3140,13 +3158,13 @@
         <v>197657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3179,13 @@
         <v>1972077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>1822</v>
@@ -3176,13 +3194,13 @@
         <v>1894951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>3678</v>
@@ -3191,13 +3209,13 @@
         <v>3867028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3271,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3265,13 +3283,13 @@
         <v>19643</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3280,13 +3298,13 @@
         <v>21811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3295,13 +3313,13 @@
         <v>41454</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3334,13 @@
         <v>527243</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -3331,13 +3349,13 @@
         <v>527329</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>989</v>
@@ -3346,13 +3364,13 @@
         <v>1054572</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3438,13 @@
         <v>187408</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>216</v>
@@ -3435,13 +3453,13 @@
         <v>243684</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -3450,13 +3468,13 @@
         <v>431092</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,10 +3489,10 @@
         <v>3190210</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>219</v>
@@ -3563,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9573A494-1C1E-4BB7-8F21-1FE0877ABA19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D7480E-75A9-4A13-9134-3F2D2D300B57}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3924,7 +3942,7 @@
         <v>2634</v>
       </c>
       <c r="I8" s="7">
-        <v>1951852</v>
+        <v>1951851</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>257</v>
@@ -3975,7 +3993,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4004,7 +4022,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4037,7 +4055,7 @@
         <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -4046,13 +4064,13 @@
         <v>82652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4085,13 @@
         <v>627169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4082,13 +4100,13 @@
         <v>677103</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1583</v>
@@ -4097,13 +4115,13 @@
         <v>1304274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4189,13 @@
         <v>387020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>693</v>
@@ -4186,13 +4204,13 @@
         <v>533075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1120</v>
@@ -4201,13 +4219,13 @@
         <v>920095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,16 +4237,16 @@
         <v>2937</v>
       </c>
       <c r="D14" s="7">
-        <v>2989674</v>
+        <v>2989675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4659</v>
@@ -4237,28 +4255,28 @@
         <v>3266285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>7596</v>
       </c>
       <c r="N14" s="7">
-        <v>6255959</v>
+        <v>6255960</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,7 +4288,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4300,7 +4318,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4314,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_fisi_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6835428B-DF67-47E6-8D52-9B3001E7F86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC16D7C4-58C6-4639-9C0A-6CC627564419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{166B639C-55AB-413F-894D-F7A61FC400F6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98DE99AC-3346-44D7-87FF-930C1EFF1DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -197,22 +197,22 @@
     <t>4,77%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>97,22%</t>
@@ -224,22 +224,22 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>4,99%</t>
@@ -251,22 +251,22 @@
     <t>5,8%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>95,01%</t>
@@ -278,22 +278,22 @@
     <t>95,77%</t>
   </si>
   <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -572,9 +572,6 @@
     <t>4,69%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
     <t>5,71%</t>
   </si>
   <si>
@@ -599,9 +596,6 @@
     <t>94,29%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
     <t>95,14%</t>
   </si>
   <si>
@@ -722,220 +716,208 @@
     <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>22,65%</t>
+    <t>22,6%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A797B7F2-6B89-4C24-872D-7C1C658A26DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF20CD2-693C-49D9-AF22-F3D53EDAEA1E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1549,7 +1531,7 @@
         <v>2121</v>
       </c>
       <c r="N5" s="7">
-        <v>2135519</v>
+        <v>2135518</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1600,7 +1582,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1674,7 +1656,7 @@
         <v>1587</v>
       </c>
       <c r="D8" s="7">
-        <v>1630039</v>
+        <v>1630040</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1725,7 +1707,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1790,10 +1772,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>21179</v>
+        <v>23035</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1805,10 +1787,10 @@
         <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>36503</v>
+        <v>38358</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1841,10 +1823,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I11" s="7">
-        <v>455233</v>
+        <v>453377</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1856,10 +1838,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="N11" s="7">
-        <v>991317</v>
+        <v>989462</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1945,10 +1927,10 @@
         <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I13" s="7">
-        <v>209674</v>
+        <v>211529</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>70</v>
@@ -1960,10 +1942,10 @@
         <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N13" s="7">
-        <v>373284</v>
+        <v>375140</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>73</v>
@@ -1984,7 +1966,7 @@
         <v>3052</v>
       </c>
       <c r="D14" s="7">
-        <v>3112933</v>
+        <v>3112932</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1996,10 +1978,10 @@
         <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="I14" s="7">
-        <v>3169524</v>
+        <v>3167668</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2011,10 +1993,10 @@
         <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>6151</v>
+        <v>6149</v>
       </c>
       <c r="N14" s="7">
-        <v>6282456</v>
+        <v>6280601</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2035,7 +2017,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2032,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2047,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE81B29-4DCE-45AB-9B37-DF24E81BA89C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD3AB15-6F58-499B-961F-461370977A0B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,7 +2216,7 @@
         <v>163</v>
       </c>
       <c r="I4" s="7">
-        <v>174948</v>
+        <v>174949</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>90</v>
@@ -2336,7 +2318,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2610,7 +2592,7 @@
         <v>814</v>
       </c>
       <c r="N11" s="7">
-        <v>898263</v>
+        <v>898264</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>136</v>
@@ -2661,7 +2643,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5D3F07-9DD6-43AF-A68D-7A105FA1AF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D159A96B-4609-4B2F-B999-63A73B3F29E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3146,10 +3128,10 @@
         <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>182</v>
@@ -3158,13 +3140,13 @@
         <v>197657</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3161,13 @@
         <v>1972077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>1822</v>
@@ -3194,13 +3176,13 @@
         <v>1894951</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="M8" s="7">
         <v>3678</v>
@@ -3209,13 +3191,13 @@
         <v>3867028</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3265,13 @@
         <v>19643</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3298,13 +3280,13 @@
         <v>21811</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3313,13 +3295,13 @@
         <v>41454</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3316,13 @@
         <v>527243</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -3349,28 +3331,28 @@
         <v>527329</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>989</v>
       </c>
       <c r="N11" s="7">
-        <v>1054572</v>
+        <v>1054573</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3394,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3438,13 +3420,13 @@
         <v>187408</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>216</v>
@@ -3453,13 +3435,13 @@
         <v>243684</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -3468,13 +3450,13 @@
         <v>431092</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3471,13 @@
         <v>3190210</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>3110</v>
@@ -3504,13 +3486,13 @@
         <v>3288416</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>6147</v>
@@ -3519,13 +3501,13 @@
         <v>6478626</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D7480E-75A9-4A13-9134-3F2D2D300B57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF1B7E4-7F7C-4639-A0AB-30CC53DFFCE2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3721,46 +3703,46 @@
         <v>164</v>
       </c>
       <c r="D4" s="7">
-        <v>122668</v>
+        <v>116353</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>347</v>
+      </c>
+      <c r="I4" s="7">
+        <v>177802</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="7">
-        <v>349</v>
-      </c>
-      <c r="I4" s="7">
-        <v>198623</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>511</v>
+      </c>
+      <c r="N4" s="7">
+        <v>294155</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M4" s="7">
-        <v>513</v>
-      </c>
-      <c r="N4" s="7">
-        <v>321291</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,46 +3754,46 @@
         <v>527</v>
       </c>
       <c r="D5" s="7">
-        <v>418966</v>
+        <v>398585</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1080</v>
+      </c>
+      <c r="I5" s="7">
+        <v>577706</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H5" s="7">
-        <v>1078</v>
-      </c>
-      <c r="I5" s="7">
-        <v>637330</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1607</v>
+      </c>
+      <c r="N5" s="7">
+        <v>976291</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="7">
-        <v>1605</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1056295</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3805,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3820,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3835,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3873,49 +3855,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D7" s="7">
-        <v>218483</v>
+        <v>200233</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>279</v>
+      </c>
+      <c r="I7" s="7">
+        <v>371494</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="7">
-        <v>287</v>
-      </c>
-      <c r="I7" s="7">
-        <v>297669</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>492</v>
+      </c>
+      <c r="N7" s="7">
+        <v>571727</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M7" s="7">
-        <v>505</v>
-      </c>
-      <c r="N7" s="7">
-        <v>516152</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,49 +3906,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="D8" s="7">
-        <v>1943539</v>
+        <v>2090094</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2642</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1866329</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H8" s="7">
-        <v>2634</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1951851</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>4421</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3956423</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="M8" s="7">
-        <v>4408</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3895391</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3960,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3975,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +3990,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,46 +4013,46 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>45870</v>
+        <v>45405</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>36783</v>
+        <v>34223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>82652</v>
+        <v>79628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,46 +4064,46 @@
         <v>636</v>
       </c>
       <c r="D11" s="7">
-        <v>627169</v>
+        <v>601218</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
       </c>
       <c r="I11" s="7">
-        <v>677103</v>
+        <v>626240</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1583</v>
       </c>
       <c r="N11" s="7">
-        <v>1304274</v>
+        <v>1227458</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4115,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4130,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4145,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4183,49 +4165,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D13" s="7">
-        <v>387020</v>
+        <v>361991</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="7">
+        <v>683</v>
+      </c>
+      <c r="I13" s="7">
+        <v>583519</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1105</v>
+      </c>
+      <c r="N13" s="7">
+        <v>945510</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="H13" s="7">
-        <v>693</v>
-      </c>
-      <c r="I13" s="7">
-        <v>533075</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1120</v>
-      </c>
-      <c r="N13" s="7">
-        <v>920095</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,49 +4216,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2937</v>
+        <v>2942</v>
       </c>
       <c r="D14" s="7">
-        <v>2989675</v>
+        <v>3089898</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4669</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3070275</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7611</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6160173</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4659</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3266285</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7596</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6255960</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4270,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4285,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4300,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
